--- a/src/test/resources/config/config.xml.xlsx
+++ b/src/test/resources/config/config.xml.xlsx
@@ -11,7 +11,6 @@
     <sheet name="TempList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,20 +425,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -447,6 +446,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -456,7 +458,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +467,7 @@
     <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2</v>
       </c>
@@ -485,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/src/test/resources/config/config.xml.xlsx
+++ b/src/test/resources/config/config.xml.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14050" windowHeight="3620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14960" windowHeight="2970"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceSheet" sheetId="1" r:id="rId1"/>
     <sheet name="TempList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sl No.</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>9.0.0</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>12.3.1</t>
+  </si>
+  <si>
+    <t>Apple_iPhone8_iOS_12.3.1</t>
   </si>
 </sst>
 </file>
@@ -390,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -445,6 +455,7 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -458,7 +469,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/config/config.xml.xlsx
+++ b/src/test/resources/config/config.xml.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14960" windowHeight="2970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14960" windowHeight="5690"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceSheet" sheetId="1" r:id="rId1"/>
     <sheet name="TempList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Sl No.</t>
   </si>
@@ -403,7 +402,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,29 +435,48 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -466,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,9 +536,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/config/config.xml.xlsx
+++ b/src/test/resources/config/config.xml.xlsx
@@ -11,6 +11,7 @@
     <sheet name="TempList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Sl No.</t>
   </si>
@@ -402,7 +403,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,20 +435,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -455,28 +456,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +472,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
